--- a/assets/import/product.xlsx
+++ b/assets/import/product.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="132">
   <si>
     <t>Mã sản phẩm</t>
   </si>
@@ -1104,31 +1104,6 @@
   </si>
   <si>
     <t>01/12/2016 17:42</t>
-  </si>
-  <si>
-    <t>sản phẩm mới 1214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;chưa biết m&amp;ocirc; tả thế n&amp;agrave;o&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>13/12/2016 00:15</t>
-  </si>
-  <si>
-    <t>thêm cái nữa lúc 1233</t>
-  </si>
-  <si>
-    <t>Mô tả thế nào đó</t>
-  </si>
-  <si>
-    <t>13/12/2016 00:34</t>
-  </si>
-  <si>
-    <t>sp mới lúc 1257</t>
-  </si>
-  <si>
-    <t>chua co mo tả</t>
   </si>
 </sst>
 </file>
@@ -1465,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,7 +1494,7 @@
         <v>78000</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1729,7 +1704,7 @@
         <v>156000</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -2006,7 +1981,7 @@
         <v>56</v>
       </c>
       <c r="C16">
-        <v>1000</v>
+        <v>148000</v>
       </c>
       <c r="D16">
         <v>190</v>
@@ -2114,7 +2089,7 @@
         <v>158000</v>
       </c>
       <c r="D19">
-        <v>9999</v>
+        <v>200</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -2846,10 +2821,10 @@
         <v>126</v>
       </c>
       <c r="C40">
-        <v>133000</v>
+        <v>1000</v>
       </c>
       <c r="D40">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -2867,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -2881,10 +2856,10 @@
         <v>129</v>
       </c>
       <c r="C41">
-        <v>200000</v>
+        <v>70000</v>
       </c>
       <c r="D41">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>19</v>
@@ -2902,97 +2877,10 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K41">
         <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42">
-        <v>33000</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" t="s">
-        <v>133</v>
-      </c>
-      <c r="G42" t="s">
-        <v>134</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43">
-        <v>123456</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" t="s">
-        <v>136</v>
-      </c>
-      <c r="G43" t="s">
-        <v>137</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44">
-        <v>70</v>
-      </c>
-      <c r="D44">
-        <v>199</v>
-      </c>
-      <c r="E44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/assets/import/product.xlsx
+++ b/assets/import/product.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
   <si>
     <t>Mã sản phẩm</t>
   </si>
@@ -886,7 +887,7 @@
 </t>
   </si>
   <si>
-    <t>Ba kich</t>
+    <t>Ba kích</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;1. T&amp;ecirc;n khoa học:&lt;/strong&gt;&amp;nbsp;Morinda officinalis How.&lt;/p&gt;
@@ -1109,9 +1110,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1122,34 +1128,28 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -1439,16 +1439,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1518,7 +1521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1553,7 +1556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1588,7 +1591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1623,7 +1626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1716,10 +1719,10 @@
         <v>33</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1728,7 +1731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1798,7 +1801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1809,7 +1812,7 @@
         <v>158000</v>
       </c>
       <c r="D11">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1821,19 +1824,19 @@
         <v>42</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1868,7 +1871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1903,7 +1906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1938,7 +1941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1973,7 +1976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2008,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2019,7 +2022,7 @@
         <v>88000</v>
       </c>
       <c r="D17">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -2037,13 +2040,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2078,7 +2081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2113,7 +2116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2148,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2218,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2253,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2288,7 +2291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2299,7 +2302,7 @@
         <v>130000</v>
       </c>
       <c r="D25">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E25" t="s">
         <v>19</v>
@@ -2317,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2358,7 +2361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2404,7 +2407,7 @@
         <v>88000</v>
       </c>
       <c r="D28">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
@@ -2422,13 +2425,13 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>98000</v>
       </c>
       <c r="D30">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
@@ -2486,19 +2489,19 @@
         <v>100</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2544,7 +2547,7 @@
         <v>68000</v>
       </c>
       <c r="D32">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -2562,13 +2565,13 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2579,7 +2582,7 @@
         <v>98000</v>
       </c>
       <c r="D33">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -2591,19 +2594,19 @@
         <v>108</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2614,7 +2617,7 @@
         <v>190000</v>
       </c>
       <c r="D34">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -2632,13 +2635,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2661,10 +2664,10 @@
         <v>114</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2673,7 +2676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2696,10 +2699,10 @@
         <v>114</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2708,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2743,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2754,7 +2757,7 @@
         <v>986000</v>
       </c>
       <c r="D38">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -2772,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2789,7 +2792,7 @@
         <v>38000</v>
       </c>
       <c r="D39">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -2801,19 +2804,19 @@
         <v>125</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2821,10 +2824,10 @@
         <v>126</v>
       </c>
       <c r="C40">
-        <v>1000</v>
+        <v>133000</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -2836,19 +2839,19 @@
         <v>128</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2856,10 +2859,10 @@
         <v>129</v>
       </c>
       <c r="C41">
-        <v>70000</v>
+        <v>200000</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
         <v>19</v>
@@ -2871,20 +2874,30 @@
         <v>131</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>